--- a/FWC/Syllabus/module-2.xlsx
+++ b/FWC/Syllabus/module-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26821"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kkuch\WiSig Dropbox\kiran kuchi\work\WiSig\wisigppts\FC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D912204C-BA7E-48A8-9039-B9409ADC374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="112" documentId="8_{D912204C-BA7E-48A8-9039-B9409ADC374B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F950BBB7-5540-4FDA-9BBF-4AD1B333107E}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -33,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
-  <si>
-    <t>S NO</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+  <si>
+    <t>Course No</t>
   </si>
   <si>
     <t>Module Name</t>
@@ -47,52 +50,100 @@
     <t>Credits</t>
   </si>
   <si>
+    <t>Hours</t>
+  </si>
+  <si>
     <t>Duration (in weeks)</t>
   </si>
   <si>
     <t>Theory/Lab</t>
   </si>
   <si>
+    <t>Language</t>
+  </si>
+  <si>
     <t>Platform</t>
   </si>
   <si>
-    <t>Optimization</t>
-  </si>
-  <si>
-    <t>Linear, quadratic and geometric programming; gradient descent</t>
+    <t>GV2</t>
+  </si>
+  <si>
+    <t>Matrices</t>
+  </si>
+  <si>
+    <t>Row and column vectors, matrix arithmetic and algebra, row reduction, eigenvalues and eigenvectors</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>Python</t>
+  </si>
+  <si>
+    <t>Termux</t>
+  </si>
+  <si>
+    <t>GV3</t>
+  </si>
+  <si>
+    <t>C Programming</t>
+  </si>
+  <si>
+    <t>Fuctions, arrays, pointers, data structures</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>GV101</t>
+  </si>
+  <si>
+    <t>Inter Chip Communication</t>
+  </si>
+  <si>
+    <t>Communication between ESP-ARM-FPGA</t>
+  </si>
+  <si>
+    <t>Vaman Board</t>
+  </si>
+  <si>
+    <t>GV102</t>
+  </si>
+  <si>
+    <t>Math on ESP</t>
+  </si>
+  <si>
+    <t>Matrix/vector operations on ESP32</t>
   </si>
   <si>
     <t>Theory+Lab</t>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
-    <t>Digital Communication</t>
-  </si>
-  <si>
-    <t>Random variables, Random processes, AWGN, Modulation Schemes</t>
-  </si>
-  <si>
-    <t>Signal Processing</t>
-  </si>
-  <si>
-    <t>Convolution, sampling, DFT, filter design</t>
-  </si>
-  <si>
-    <t>Channel coding</t>
-  </si>
-  <si>
-    <t>Convolutional, Turbo, Polar, LDPC Codes</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Lab</t>
-  </si>
-  <si>
-    <t>Embedded Programming</t>
+    <t>Arduino Framework</t>
+  </si>
+  <si>
+    <t>GV103</t>
+  </si>
+  <si>
+    <t>Math on ARM</t>
+  </si>
+  <si>
+    <t>Matrix/vector operations on Cortex-M4</t>
+  </si>
+  <si>
+    <t>ARM-GCC</t>
+  </si>
+  <si>
+    <t>GV104</t>
+  </si>
+  <si>
+    <t>Math on FPGA</t>
+  </si>
+  <si>
+    <t>Matrix/vector operations on EOS-S3</t>
+  </si>
+  <si>
+    <t>Verilog</t>
   </si>
   <si>
     <t>Total</t>
@@ -102,7 +153,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,6 +186,18 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -195,7 +258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -203,12 +266,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -218,12 +275,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -238,17 +289,32 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -560,203 +626,269 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD97CC0-BA45-334D-9D53-B0E6DB0BA78E}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="2" customWidth="1"/>
     <col min="4" max="4" width="58.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="17" customFormat="1" ht="30.75">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:12" s="11" customFormat="1" ht="30.75">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="7"/>
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="7" t="s">
         <v>6</v>
       </c>
+      <c r="J1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="12">
+    <row r="2" spans="1:12" s="11" customFormat="1" ht="30.75">
+      <c r="A2" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="19">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="19">
+        <f t="shared" ref="F2:F4" si="0">6*6*G2</f>
+        <v>72</v>
+      </c>
+      <c r="G2" s="18">
+        <f>2</f>
+        <v>2</v>
+      </c>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="15">
+        <f>1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="13">
+      <c r="F3" s="19">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G3" s="2">
+        <f>1</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30.75">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="15">
+        <v>1</v>
+      </c>
+      <c r="F4" s="19">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30.75">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="15">
+        <f>2</f>
         <v>2</v>
       </c>
-      <c r="F2" s="3">
-        <v>1</v>
-      </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13" t="s">
-        <v>10</v>
+      <c r="F5" s="19">
+        <f>6*6*G5</f>
+        <v>72</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2</v>
+      </c>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="30.75">
-      <c r="A3" s="12">
-        <f>A2+1</f>
+    <row r="6" spans="1:12">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="15">
+        <f>2</f>
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="6" t="s">
+      <c r="F6" s="19">
+        <f t="shared" ref="F6:F7" si="1">6*6*G6</f>
+        <v>72</v>
+      </c>
+      <c r="G6" s="13">
+        <v>2</v>
+      </c>
+      <c r="I6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="13">
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="15">
         <v>4</v>
       </c>
-      <c r="F3" s="3">
-        <v>2</v>
-      </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="18"/>
+      <c r="F7" s="19">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+      <c r="G7" s="13">
+        <v>4</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="12">
-        <f t="shared" ref="A4:A6" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="13">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3">
-        <v>2</v>
-      </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="18"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="13">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3">
-        <v>2</v>
-      </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" s="18"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="12">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="2">
-        <v>4</v>
-      </c>
-      <c r="F6" s="15">
-        <v>2</v>
-      </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="12"/>
-      <c r="B7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="14">
-        <f>SUM(E2:E6)</f>
-        <v>18</v>
-      </c>
-      <c r="F7" s="14">
-        <f>SUM(F2:F6)</f>
-        <v>9</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="18"/>
+    <row r="8" spans="1:12">
+      <c r="A8" s="8"/>
+      <c r="B8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="10">
+        <f>SUM(E2:E7)</f>
+        <v>12</v>
+      </c>
+      <c r="F8" s="10">
+        <f>SUM(F2:F7)</f>
+        <v>432</v>
+      </c>
+      <c r="G8" s="10">
+        <f>SUM(G2:G7)</f>
+        <v>12</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
